--- a/teaching/traditional_assets/database/data/france/france_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00839</v>
+        <v>-0.0253</v>
       </c>
       <c r="E2">
-        <v>-0.00584</v>
+        <v>-0.105</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +609,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1760.3</v>
+        <v>1077.1</v>
       </c>
       <c r="L2">
-        <v>0.2754126574356567</v>
+        <v>0.192143710865726</v>
       </c>
       <c r="M2">
-        <v>438.2503</v>
+        <v>340.378</v>
       </c>
       <c r="N2">
-        <v>0.02540817119269033</v>
+        <v>0.0242605540944113</v>
       </c>
       <c r="O2">
-        <v>0.2489634153269329</v>
+        <v>0.3160133692321976</v>
       </c>
       <c r="P2">
-        <v>438.2503</v>
+        <v>338.028</v>
       </c>
       <c r="Q2">
-        <v>0.02540817119269033</v>
+        <v>0.02409305707015631</v>
       </c>
       <c r="R2">
-        <v>0.2489634153269329</v>
+        <v>0.3138315848110668</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00690408898342431</v>
       </c>
       <c r="U2">
-        <v>4943.099999999999</v>
+        <v>13487.3</v>
       </c>
       <c r="V2">
-        <v>0.2865831033603116</v>
+        <v>0.9613117511635697</v>
       </c>
       <c r="W2">
-        <v>0.04099125364431486</v>
+        <v>0.02203887884267631</v>
       </c>
       <c r="X2">
-        <v>0.06349093008661433</v>
+        <v>0.0756315846431245</v>
       </c>
       <c r="Y2">
-        <v>-0.02249967644229946</v>
+        <v>-0.05359270580044818</v>
       </c>
       <c r="Z2">
-        <v>0.07659722562607731</v>
+        <v>0.08940032709576123</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04339528083538047</v>
+        <v>0.03770093038428644</v>
       </c>
       <c r="AC2">
-        <v>-0.04339528083538047</v>
+        <v>-0.03770093038428644</v>
       </c>
       <c r="AD2">
-        <v>24347.4</v>
+        <v>31146.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>24347.4</v>
+        <v>31146.8</v>
       </c>
       <c r="AG2">
-        <v>19404.3</v>
+        <v>17659.5</v>
       </c>
       <c r="AH2">
-        <v>0.5853331345953197</v>
+        <v>0.6894408425544913</v>
       </c>
       <c r="AI2">
-        <v>0.3617203981577775</v>
+        <v>0.4188109119855424</v>
       </c>
       <c r="AJ2">
-        <v>0.5294098388386121</v>
+        <v>0.5572648439866708</v>
       </c>
       <c r="AK2">
-        <v>0.3111313853983443</v>
+        <v>0.2900596725156572</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel de La Touraine et du Poitou Société Coopérative (ENXTPA:CRTO)</t>
+          <t>Caisse régionale de Crédit Agricole Mutuel Loire Haute-Loire - Société coopérative (ENXTPA:CRLO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0074</v>
+        <v>0.00275</v>
       </c>
       <c r="E3">
-        <v>0.0115</v>
+        <v>-0.022</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>90.8</v>
+        <v>103.2</v>
       </c>
       <c r="L3">
-        <v>0.2863450015767896</v>
+        <v>0.2326420198376916</v>
       </c>
       <c r="M3">
-        <v>29.6</v>
+        <v>13.8</v>
       </c>
       <c r="N3">
-        <v>0.03255251292202794</v>
+        <v>0.01740007565250284</v>
       </c>
       <c r="O3">
-        <v>0.3259911894273128</v>
+        <v>0.1337209302325582</v>
       </c>
       <c r="P3">
-        <v>29.6</v>
+        <v>13.8</v>
       </c>
       <c r="Q3">
-        <v>0.03255251292202794</v>
+        <v>0.01740007565250284</v>
       </c>
       <c r="R3">
-        <v>0.3259911894273128</v>
+        <v>0.1337209302325582</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>268.2</v>
+        <v>368.6</v>
       </c>
       <c r="V3">
-        <v>0.2949521610029693</v>
+        <v>0.4647585424284453</v>
       </c>
       <c r="W3">
-        <v>0.03783018081826515</v>
+        <v>0.04368993692053681</v>
       </c>
       <c r="X3">
-        <v>0.2069531114520244</v>
+        <v>0.04109508119131187</v>
       </c>
       <c r="Y3">
-        <v>-0.1691229306337593</v>
+        <v>0.002594855729224937</v>
       </c>
       <c r="Z3">
-        <v>0.03059836152576882</v>
+        <v>0.1714528659220036</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04155227160532657</v>
+        <v>0.03752108040488618</v>
       </c>
       <c r="AC3">
-        <v>-0.04155227160532657</v>
+        <v>-0.03752108040488618</v>
       </c>
       <c r="AD3">
-        <v>8036.6</v>
+        <v>141.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>8036.6</v>
+        <v>141.9</v>
       </c>
       <c r="AG3">
-        <v>7768.400000000001</v>
+        <v>-226.7</v>
       </c>
       <c r="AH3">
-        <v>0.8983556713131156</v>
+        <v>0.1517647058823529</v>
       </c>
       <c r="AI3">
-        <v>0.7693913110077163</v>
+        <v>0.05405508361586225</v>
       </c>
       <c r="AJ3">
-        <v>0.8952141696532491</v>
+        <v>-0.400247175141243</v>
       </c>
       <c r="AK3">
-        <v>0.7633140745981213</v>
+        <v>-0.1004653224019499</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel Alpes Provence Société coopérative (ENXTPA:CRAP)</t>
+          <t>Caisse régionale de Crédit Agricole Mutuel d'Ille-et-Vilaine Société coopérative (ENXTPA:CIV)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0103</v>
+        <v>-0.0596</v>
       </c>
       <c r="E4">
-        <v>-0.0204</v>
+        <v>-0.257</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,82 +853,85 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>95.2</v>
+        <v>20.1</v>
       </c>
       <c r="L4">
-        <v>0.2262357414448669</v>
+        <v>0.09314179796107507</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>23.7</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.03636642626975602</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>1.17910447761194</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>23.7</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.03636642626975602</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>1.17910447761194</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0</v>
+        <v>847.4</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.300291545189504</v>
       </c>
       <c r="W4">
-        <v>0.03321470937129301</v>
+        <v>0.009654178674351586</v>
       </c>
       <c r="X4">
-        <v>0.07848321871017651</v>
+        <v>0.06210319616123144</v>
       </c>
       <c r="Y4">
-        <v>-0.0452685093388835</v>
+        <v>-0.05244901748687986</v>
       </c>
       <c r="Z4">
-        <v>0.08731920898093004</v>
+        <v>0.09083638506545438</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04271831004191012</v>
+        <v>0.03766343111778511</v>
       </c>
       <c r="AC4">
-        <v>-0.04271831004191012</v>
+        <v>-0.03766343111778511</v>
       </c>
       <c r="AD4">
-        <v>1895.8</v>
+        <v>791.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1895.8</v>
+        <v>791.7</v>
       </c>
       <c r="AG4">
-        <v>1895.8</v>
+        <v>-55.69999999999993</v>
       </c>
       <c r="AH4">
-        <v>0.6427312177922431</v>
+        <v>0.5484966052376333</v>
       </c>
       <c r="AI4">
-        <v>0.4100356872499189</v>
+        <v>0.2793183742591024</v>
       </c>
       <c r="AJ4">
-        <v>0.6427312177922431</v>
+        <v>-0.09345637583892605</v>
       </c>
       <c r="AK4">
-        <v>0.4100356872499189</v>
+        <v>-0.02803220936084546</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -945,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel de Normandie-Seine Société coopérative (ENXTPA:CCN)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel de Paris et d'Ile-de-France (ENXTPA:CAF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -954,10 +957,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0252</v>
+        <v>-0.00749</v>
       </c>
       <c r="E5">
-        <v>-0.05860000000000001</v>
+        <v>-0.0487</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -972,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>99.59999999999999</v>
+        <v>254.5</v>
       </c>
       <c r="L5">
-        <v>0.2549923195084485</v>
+        <v>0.2483169089667285</v>
       </c>
       <c r="M5">
-        <v>16.8</v>
+        <v>39.6</v>
       </c>
       <c r="N5">
-        <v>0.01560468140442133</v>
+        <v>0.0152954808806489</v>
       </c>
       <c r="O5">
-        <v>0.1686746987951807</v>
+        <v>0.1555992141453831</v>
       </c>
       <c r="P5">
-        <v>16.8</v>
+        <v>39.6</v>
       </c>
       <c r="Q5">
-        <v>0.01560468140442133</v>
+        <v>0.0152954808806489</v>
       </c>
       <c r="R5">
-        <v>0.1686746987951807</v>
+        <v>0.1555992141453831</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1002,55 +1005,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>702.5</v>
+        <v>113.3</v>
       </c>
       <c r="V5">
-        <v>0.6525171837265465</v>
+        <v>0.04376207029741213</v>
       </c>
       <c r="W5">
-        <v>0.03744079392526878</v>
+        <v>0.03630527817403709</v>
       </c>
       <c r="X5">
-        <v>0.06987635467447789</v>
+        <v>0.06455201903544394</v>
       </c>
       <c r="Y5">
-        <v>-0.03243556074920911</v>
+        <v>-0.02824674086140685</v>
       </c>
       <c r="Z5">
-        <v>0.1085603112840467</v>
+        <v>0.1098876356306557</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04304852641110561</v>
+        <v>0.03767180679710826</v>
       </c>
       <c r="AC5">
-        <v>-0.04304852641110561</v>
+        <v>-0.03767180679710826</v>
       </c>
       <c r="AD5">
-        <v>1429.1</v>
+        <v>3457.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1429.1</v>
+        <v>3457.8</v>
       </c>
       <c r="AG5">
-        <v>726.5999999999999</v>
+        <v>3344.5</v>
       </c>
       <c r="AH5">
-        <v>0.57033962565351</v>
+        <v>0.5718396507243501</v>
       </c>
       <c r="AI5">
-        <v>0.3499522491857874</v>
+        <v>0.3249934208052934</v>
       </c>
       <c r="AJ5">
-        <v>0.4029503105590062</v>
+        <v>0.5636639420241004</v>
       </c>
       <c r="AK5">
-        <v>0.2148941204306163</v>
+        <v>0.3177279765919649</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1067,7 +1070,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Caisse régionale de Crédit Agricole Mutuel Atlantique Vendée (ENXTPA:CRAV)</t>
+          <t>Caisse Régionale de Crédit Agricole du Morbihan (ENXTPA:CMO)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1076,10 +1079,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.015</v>
+        <v>-0.008529999999999999</v>
       </c>
       <c r="E6">
-        <v>-0.0358</v>
+        <v>-0.011</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1094,28 +1097,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>140.6</v>
+        <v>50.8</v>
       </c>
       <c r="L6">
-        <v>0.2874080130825838</v>
+        <v>0.2354031510658016</v>
       </c>
       <c r="M6">
-        <v>35.2503</v>
+        <v>12.7</v>
       </c>
       <c r="N6">
-        <v>0.02656991030376121</v>
+        <v>0.02300724637681159</v>
       </c>
       <c r="O6">
-        <v>0.2507133712660028</v>
+        <v>0.25</v>
       </c>
       <c r="P6">
-        <v>35.2503</v>
+        <v>12.7</v>
       </c>
       <c r="Q6">
-        <v>0.02656991030376121</v>
+        <v>0.02300724637681159</v>
       </c>
       <c r="R6">
-        <v>0.2507133712660028</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1124,55 +1127,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>71.2</v>
+        <v>31.5</v>
       </c>
       <c r="V6">
-        <v>0.05366699329162584</v>
+        <v>0.05706521739130434</v>
       </c>
       <c r="W6">
-        <v>0.04099125364431486</v>
+        <v>0.02872815698693661</v>
       </c>
       <c r="X6">
-        <v>0.06875125184603297</v>
+        <v>0.06580715022584135</v>
       </c>
       <c r="Y6">
-        <v>-0.0277599982017181</v>
+        <v>-0.03707899323890475</v>
       </c>
       <c r="Z6">
-        <v>0.1007724791430631</v>
+        <v>0.09282918226007658</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04310185186432611</v>
+        <v>0.03767577266933073</v>
       </c>
       <c r="AC6">
-        <v>-0.04310185186432611</v>
+        <v>-0.03767577266933073</v>
       </c>
       <c r="AD6">
-        <v>1679.3</v>
+        <v>771.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1679.3</v>
+        <v>771.4</v>
       </c>
       <c r="AG6">
-        <v>1608.1</v>
+        <v>739.9</v>
       </c>
       <c r="AH6">
-        <v>0.558649367930805</v>
+        <v>0.5828925494937283</v>
       </c>
       <c r="AI6">
-        <v>0.3272659949720343</v>
+        <v>0.3011164025294714</v>
       </c>
       <c r="AJ6">
-        <v>0.5479419381218481</v>
+        <v>0.572722346930877</v>
       </c>
       <c r="AK6">
-        <v>0.3178000434774016</v>
+        <v>0.2924159190609809</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel Brie Picardie Société coopérative (ENXTPA:CRBP2)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel du Languedoc Société coopérative (ENXTPA:CRLA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1198,10 +1201,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.00701</v>
+        <v>-0.0242</v>
       </c>
       <c r="E7">
-        <v>0.008579999999999999</v>
+        <v>-0.075</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1216,28 +1219,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>225.7</v>
+        <v>124.9</v>
       </c>
       <c r="L7">
-        <v>0.3331857100679067</v>
+        <v>0.2297222733124885</v>
       </c>
       <c r="M7">
-        <v>81.5</v>
+        <v>46.5</v>
       </c>
       <c r="N7">
-        <v>0.04389981147320226</v>
+        <v>0.03177531775317753</v>
       </c>
       <c r="O7">
-        <v>0.3610988037217546</v>
+        <v>0.3722978382706165</v>
       </c>
       <c r="P7">
-        <v>81.5</v>
+        <v>46.5</v>
       </c>
       <c r="Q7">
-        <v>0.04389981147320226</v>
+        <v>0.03177531775317753</v>
       </c>
       <c r="R7">
-        <v>0.3610988037217546</v>
+        <v>0.3722978382706165</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1246,55 +1249,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1877.6</v>
+        <v>158.9</v>
       </c>
       <c r="V7">
-        <v>1.011365472663614</v>
+        <v>0.1085827524941916</v>
       </c>
       <c r="W7">
-        <v>0.05120468260810381</v>
+        <v>0.02813886948881429</v>
       </c>
       <c r="X7">
-        <v>0.06774944844676878</v>
+        <v>0.0681069260884988</v>
       </c>
       <c r="Y7">
-        <v>-0.01654476583866497</v>
+        <v>-0.03996805659968451</v>
       </c>
       <c r="Z7">
-        <v>0.1404490887603408</v>
+        <v>0.09333745343427581</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04315183623526721</v>
+        <v>0.03768253202468942</v>
       </c>
       <c r="AC7">
-        <v>-0.04315183623526721</v>
+        <v>-0.03768253202468942</v>
       </c>
       <c r="AD7">
-        <v>2248</v>
+        <v>2211</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>2248</v>
+        <v>2211</v>
       </c>
       <c r="AG7">
-        <v>370.4000000000001</v>
+        <v>2052.1</v>
       </c>
       <c r="AH7">
-        <v>0.547691558046047</v>
+        <v>0.6017308948399739</v>
       </c>
       <c r="AI7">
-        <v>0.3360791759482127</v>
+        <v>0.3310128003593084</v>
       </c>
       <c r="AJ7">
-        <v>0.1663298756118371</v>
+        <v>0.5837291992604181</v>
       </c>
       <c r="AK7">
-        <v>0.07698543013322806</v>
+        <v>0.3147103027328773</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1311,7 +1314,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel Sud Rhône Alpes (ENXTPA:CRSU)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel Nord de France Société coopérative (ENXTPA:CNF)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1320,10 +1323,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0104</v>
+        <v>-0.0268</v>
       </c>
       <c r="E8">
-        <v>-0.0364</v>
+        <v>-0.105</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1338,28 +1341,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>121.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L8">
-        <v>0.258974358974359</v>
+        <v>0.172112122835208</v>
       </c>
       <c r="M8">
-        <v>37.4</v>
+        <v>38.4</v>
       </c>
       <c r="N8">
-        <v>0.03223026542571527</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="O8">
-        <v>0.3085808580858085</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="P8">
-        <v>37.4</v>
+        <v>38.4</v>
       </c>
       <c r="Q8">
-        <v>0.03223026542571527</v>
+        <v>0.0253968253968254</v>
       </c>
       <c r="R8">
-        <v>0.3085808580858085</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1368,55 +1371,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>173.8</v>
+        <v>3934.3</v>
       </c>
       <c r="V8">
-        <v>0.1497759393312651</v>
+        <v>2.602050264550265</v>
       </c>
       <c r="W8">
-        <v>0.04219027395829707</v>
+        <v>0.0196354007536409</v>
       </c>
       <c r="X8">
-        <v>0.06755747501614308</v>
+        <v>0.06936734176839593</v>
       </c>
       <c r="Y8">
-        <v>-0.025367201057846</v>
+        <v>-0.04973194101475503</v>
       </c>
       <c r="Z8">
-        <v>0.1124494518089225</v>
+        <v>0.09687797284441754</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04316169937027407</v>
+        <v>0.03768598380503933</v>
       </c>
       <c r="AC8">
-        <v>-0.04316169937027407</v>
+        <v>-0.03768598380503933</v>
       </c>
       <c r="AD8">
-        <v>1392.9</v>
+        <v>2378.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1392.9</v>
+        <v>2378.4</v>
       </c>
       <c r="AG8">
-        <v>1219.1</v>
+        <v>-1555.9</v>
       </c>
       <c r="AH8">
-        <v>0.5455293150041123</v>
+        <v>0.6113510178901912</v>
       </c>
       <c r="AI8">
-        <v>0.3259541806098332</v>
+        <v>0.3248603390108314</v>
       </c>
       <c r="AJ8">
-        <v>0.5123345240596765</v>
+        <v>35.44191343963546</v>
       </c>
       <c r="AK8">
-        <v>0.2973777289913405</v>
+        <v>-0.4593740773545912</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1433,7 +1436,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole du Morbihan (ENXTPA:CMO)</t>
+          <t>Caisse régionale de Crédit Agricole Mutuel Atlantique Vendée (ENXTPA:CRAV)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1442,10 +1445,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0262</v>
+        <v>-0.0169</v>
       </c>
       <c r="E9">
-        <v>0.0843</v>
+        <v>-0.108</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1460,28 +1463,28 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>77.7</v>
+        <v>72.5</v>
       </c>
       <c r="L9">
-        <v>0.3010461061604029</v>
+        <v>0.1720863992404462</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>23.8</v>
       </c>
       <c r="N9">
-        <v>0.02661343978709248</v>
+        <v>0.02270342459219689</v>
       </c>
       <c r="O9">
-        <v>0.2059202059202059</v>
+        <v>0.3282758620689655</v>
       </c>
       <c r="P9">
-        <v>16</v>
+        <v>23.8</v>
       </c>
       <c r="Q9">
-        <v>0.02661343978709248</v>
+        <v>0.02270342459219689</v>
       </c>
       <c r="R9">
-        <v>0.2059202059202059</v>
+        <v>0.3282758620689655</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1490,55 +1493,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>31.3</v>
+        <v>68.8</v>
       </c>
       <c r="V9">
-        <v>0.05206254158349966</v>
+        <v>0.06563006772870361</v>
       </c>
       <c r="W9">
-        <v>0.04504347826086957</v>
+        <v>0.02100231749710313</v>
       </c>
       <c r="X9">
-        <v>0.06349093008661433</v>
+        <v>0.0756315846431245</v>
       </c>
       <c r="Y9">
-        <v>-0.01844745182574476</v>
+        <v>-0.05462926714602137</v>
       </c>
       <c r="Z9">
-        <v>0.1041523748032767</v>
+        <v>0.08325922412600541</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04339528083538047</v>
+        <v>0.03770093038428644</v>
       </c>
       <c r="AC9">
-        <v>-0.04339528083538047</v>
+        <v>-0.03770093038428644</v>
       </c>
       <c r="AD9">
-        <v>587.7</v>
+        <v>1972.8</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>587.7</v>
+        <v>1972.8</v>
       </c>
       <c r="AG9">
-        <v>556.4000000000001</v>
+        <v>1904</v>
       </c>
       <c r="AH9">
-        <v>0.4943224829674489</v>
+        <v>0.6530071828142068</v>
       </c>
       <c r="AI9">
-        <v>0.2494482173174873</v>
+        <v>0.3642002658396101</v>
       </c>
       <c r="AJ9">
-        <v>0.4806496199032481</v>
+        <v>0.6449209091217016</v>
       </c>
       <c r="AK9">
-        <v>0.2393427108874264</v>
+        <v>0.356020942408377</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1555,7 +1558,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel Nord de France Société coopérative (ENXTPA:CNF)</t>
+          <t>Caisse Regionale de Credit Agricole Mutuel Toulouse 31 (ENXTPA:CAT31)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1564,10 +1567,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.00839</v>
+        <v>-0.0318</v>
       </c>
       <c r="E10">
-        <v>0.009649999999999999</v>
+        <v>-0.18</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1582,85 +1585,85 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>151.7</v>
+        <v>31.5</v>
       </c>
       <c r="L10">
-        <v>0.2431869188842578</v>
+        <v>0.125</v>
       </c>
       <c r="M10">
-        <v>78.59999999999999</v>
+        <v>16.95</v>
       </c>
       <c r="N10">
-        <v>0.04251636284956996</v>
+        <v>0.03056807935076646</v>
       </c>
       <c r="O10">
-        <v>0.5181278839815425</v>
+        <v>0.5380952380952381</v>
       </c>
       <c r="P10">
-        <v>78.59999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="Q10">
-        <v>0.04251636284956996</v>
+        <v>0.02633002705139766</v>
       </c>
       <c r="R10">
-        <v>0.5181278839815425</v>
+        <v>0.4634920634920635</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.1386430678466077</v>
       </c>
       <c r="U10">
-        <v>854.9</v>
+        <v>45.8</v>
       </c>
       <c r="V10">
-        <v>0.462433061069941</v>
+        <v>0.08259693417493237</v>
       </c>
       <c r="W10">
-        <v>0.03105361200384843</v>
+        <v>0.01785815522421906</v>
       </c>
       <c r="X10">
-        <v>0.06269832388639196</v>
+        <v>0.07594188145387072</v>
       </c>
       <c r="Y10">
-        <v>-0.03164471188254353</v>
+        <v>-0.05808372622965166</v>
       </c>
       <c r="Z10">
-        <v>0.09987031907910535</v>
+        <v>0.1103955841766329</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04344707512801505</v>
+        <v>0.03770158791163221</v>
       </c>
       <c r="AC10">
-        <v>-0.04344707512801505</v>
+        <v>-0.03770158791163221</v>
       </c>
       <c r="AD10">
-        <v>1726.9</v>
+        <v>1052</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1726.9</v>
+        <v>1052</v>
       </c>
       <c r="AG10">
-        <v>872.0000000000001</v>
+        <v>1006.2</v>
       </c>
       <c r="AH10">
-        <v>0.4829678935003915</v>
+        <v>0.6548397136632431</v>
       </c>
       <c r="AI10">
-        <v>0.2600283081370837</v>
+        <v>0.3769663525280396</v>
       </c>
       <c r="AJ10">
-        <v>0.320505752196126</v>
+        <v>0.6447107067341578</v>
       </c>
       <c r="AK10">
-        <v>0.1507007932530287</v>
+        <v>0.3665707311741775</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Caisse Regionale de Credit Agricole Mutuel Toulouse 31 (ENXTPA:CAT31)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel Brie Picardie Société coopérative (ENXTPA:CRBP2)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1686,10 +1689,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.0147</v>
+        <v>-0.0253</v>
       </c>
       <c r="E11">
-        <v>-0.05400000000000001</v>
+        <v>-0.105</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1704,28 +1707,28 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>65.90000000000001</v>
+        <v>126.3</v>
       </c>
       <c r="L11">
-        <v>0.2379061371841155</v>
+        <v>0.2223983095615425</v>
       </c>
       <c r="M11">
-        <v>15.1</v>
+        <v>69.91800000000001</v>
       </c>
       <c r="N11">
-        <v>0.02184606481481481</v>
+        <v>0.04752446982055465</v>
       </c>
       <c r="O11">
-        <v>0.2291350531107739</v>
+        <v>0.5535866983372922</v>
       </c>
       <c r="P11">
-        <v>15.1</v>
+        <v>69.91800000000001</v>
       </c>
       <c r="Q11">
-        <v>0.02184606481481481</v>
+        <v>0.04752446982055465</v>
       </c>
       <c r="R11">
-        <v>0.2291350531107739</v>
+        <v>0.5535866983372922</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1734,55 +1737,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>101.3</v>
+        <v>3374.1</v>
       </c>
       <c r="V11">
-        <v>0.1465567129629629</v>
+        <v>2.293433931484502</v>
       </c>
       <c r="W11">
-        <v>0.03725900378809295</v>
+        <v>0.0284401810443829</v>
       </c>
       <c r="X11">
-        <v>0.0623059336792621</v>
+        <v>0.07934713640435941</v>
       </c>
       <c r="Y11">
-        <v>-0.02504692989116915</v>
+        <v>-0.05090695535997651</v>
       </c>
       <c r="Z11">
-        <v>0.114851977775935</v>
+        <v>0.1180346268160373</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04347358705106265</v>
+        <v>0.03770837242357401</v>
       </c>
       <c r="AC11">
-        <v>-0.04347358705106265</v>
+        <v>-0.03770837242357401</v>
       </c>
       <c r="AD11">
-        <v>630.8</v>
+        <v>3038.2</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>630.8</v>
+        <v>3038.2</v>
       </c>
       <c r="AG11">
-        <v>529.5</v>
+        <v>-335.9000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.4771558245083207</v>
+        <v>0.6737481704883134</v>
       </c>
       <c r="AI11">
-        <v>0.2634150415500898</v>
+        <v>0.4069980843681764</v>
       </c>
       <c r="AJ11">
-        <v>0.4337675104448267</v>
+        <v>-0.2958689333215891</v>
       </c>
       <c r="AK11">
-        <v>0.2308799162815034</v>
+        <v>-0.08211107851764939</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1799,7 +1802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel du Languedoc Société coopérative (ENXTPA:CRLA)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel Alpes Provence Société coopérative (ENXTPA:CRAP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1808,10 +1811,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.008060000000000001</v>
+        <v>-0.0405</v>
       </c>
       <c r="E12">
-        <v>0.0154</v>
+        <v>-0.216</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1826,28 +1829,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>203.6</v>
+        <v>31.2</v>
       </c>
       <c r="L12">
-        <v>0.3150727329000309</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="M12">
-        <v>46.1</v>
+        <v>19.7</v>
       </c>
       <c r="N12">
-        <v>0.02524920582758243</v>
+        <v>0.02150185549006767</v>
       </c>
       <c r="O12">
-        <v>0.2264243614931238</v>
+        <v>0.6314102564102564</v>
       </c>
       <c r="P12">
-        <v>46.1</v>
+        <v>19.7</v>
       </c>
       <c r="Q12">
-        <v>0.02524920582758243</v>
+        <v>0.02150185549006767</v>
       </c>
       <c r="R12">
-        <v>0.2264243614931238</v>
+        <v>0.6314102564102564</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1856,55 +1859,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>212.4</v>
+        <v>101.1</v>
       </c>
       <c r="V12">
-        <v>0.1163325665461716</v>
+        <v>0.110347085789129</v>
       </c>
       <c r="W12">
-        <v>0.04653927036664533</v>
+        <v>0.01096082908835412</v>
       </c>
       <c r="X12">
-        <v>0.06163166881513302</v>
+        <v>0.08308438584342484</v>
       </c>
       <c r="Y12">
-        <v>-0.01509239844848769</v>
+        <v>-0.07212355675507072</v>
       </c>
       <c r="Z12">
-        <v>0.03246257409826183</v>
+        <v>0.07805045037334989</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04352056341920276</v>
+        <v>0.03771501133856586</v>
       </c>
       <c r="AC12">
-        <v>-0.04352056341920276</v>
+        <v>-0.03771501133856586</v>
       </c>
       <c r="AD12">
-        <v>1598.8</v>
+        <v>2060.9</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1598.8</v>
+        <v>2060.9</v>
       </c>
       <c r="AG12">
-        <v>1386.4</v>
+        <v>1959.8</v>
       </c>
       <c r="AH12">
-        <v>0.4668574432050459</v>
+        <v>0.6922508481408081</v>
       </c>
       <c r="AI12">
-        <v>0.2644917946003176</v>
+        <v>0.4251645245806944</v>
       </c>
       <c r="AJ12">
-        <v>0.4316045078139593</v>
+        <v>0.6814325452016691</v>
       </c>
       <c r="AK12">
-        <v>0.2377066044852891</v>
+        <v>0.412919809531836</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1921,7 +1924,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Caisse Régionale de Crédit Agricole Mutuel de Paris et d'Ile-de-France (ENXTPA:CAF)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel de Normandie-Seine Société coopérative (ENXTPA:CCN)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1930,10 +1933,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.00649</v>
+        <v>-0.046</v>
       </c>
       <c r="E13">
-        <v>-0.00584</v>
+        <v>-0.151</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1948,28 +1951,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>303.8</v>
+        <v>58.5</v>
       </c>
       <c r="L13">
-        <v>0.2783070721876145</v>
+        <v>0.1703552708211998</v>
       </c>
       <c r="M13">
-        <v>41.1</v>
+        <v>2.11</v>
       </c>
       <c r="N13">
-        <v>0.01303851278472178</v>
+        <v>0.00255664606809645</v>
       </c>
       <c r="O13">
-        <v>0.1352863726135616</v>
+        <v>0.03606837606837607</v>
       </c>
       <c r="P13">
-        <v>41.1</v>
+        <v>2.11</v>
       </c>
       <c r="Q13">
-        <v>0.01303851278472178</v>
+        <v>0.00255664606809645</v>
       </c>
       <c r="R13">
-        <v>0.1352863726135616</v>
+        <v>0.03606837606837607</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1978,55 +1981,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>176.3</v>
+        <v>1045.3</v>
       </c>
       <c r="V13">
-        <v>0.05592919231013261</v>
+        <v>1.266569732218587</v>
       </c>
       <c r="W13">
-        <v>0.04342046964997785</v>
+        <v>0.02203887884267631</v>
       </c>
       <c r="X13">
-        <v>0.06008469304035967</v>
+        <v>0.08477672844256665</v>
       </c>
       <c r="Y13">
-        <v>-0.01666422339038182</v>
+        <v>-0.06273784959989033</v>
       </c>
       <c r="Z13">
-        <v>0.1280619427498827</v>
+        <v>0.1015675835551612</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04363566648342185</v>
+        <v>0.0377177761451791</v>
       </c>
       <c r="AC13">
-        <v>-0.04363566648342185</v>
+        <v>-0.0377177761451791</v>
       </c>
       <c r="AD13">
-        <v>2493.1</v>
+        <v>1925.3</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>2493.1</v>
+        <v>1925.3</v>
       </c>
       <c r="AG13">
-        <v>2316.8</v>
+        <v>880</v>
       </c>
       <c r="AH13">
-        <v>0.441624005810143</v>
+        <v>0.699956373154948</v>
       </c>
       <c r="AI13">
-        <v>0.2623459713146236</v>
+        <v>0.4217339875580479</v>
       </c>
       <c r="AJ13">
-        <v>0.4236240628999817</v>
+        <v>0.5160382337418636</v>
       </c>
       <c r="AK13">
-        <v>0.2484024531457735</v>
+        <v>0.2500071024745021</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2043,7 +2046,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Caisse régionale de Crédit Agricole Mutuel d'Ille-et-Vilaine Société coopérative (ENXTPA:CIV)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel Sud Rhône Alpes (ENXTPA:CRSU)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2052,10 +2055,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.0189</v>
+        <v>-0.0388</v>
       </c>
       <c r="E14">
-        <v>-0.0478</v>
+        <v>-0.162</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2070,28 +2073,28 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>69.5</v>
+        <v>53.2</v>
       </c>
       <c r="L14">
-        <v>0.2503602305475504</v>
+        <v>0.1417155034629728</v>
       </c>
       <c r="M14">
-        <v>13.2</v>
+        <v>18.4</v>
       </c>
       <c r="N14">
-        <v>0.01631240731586752</v>
+        <v>0.02061162764646577</v>
       </c>
       <c r="O14">
-        <v>0.1899280575539568</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="P14">
-        <v>13.2</v>
+        <v>18.4</v>
       </c>
       <c r="Q14">
-        <v>0.01631240731586752</v>
+        <v>0.02061162764646577</v>
       </c>
       <c r="R14">
-        <v>0.1899280575539568</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2100,55 +2103,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>196.2</v>
+        <v>2265.2</v>
       </c>
       <c r="V14">
-        <v>0.2424616905585763</v>
+        <v>2.537470594824689</v>
       </c>
       <c r="W14">
-        <v>0.03330298528918491</v>
+        <v>0.01847093951808903</v>
       </c>
       <c r="X14">
-        <v>0.05669929432829504</v>
+        <v>0.08565058232137378</v>
       </c>
       <c r="Y14">
-        <v>-0.02339630903911013</v>
+        <v>-0.06717964280328476</v>
       </c>
       <c r="Z14">
-        <v>0.1203972763152188</v>
+        <v>0.09164927185947436</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04392996165589282</v>
+        <v>0.0377191502629093</v>
       </c>
       <c r="AC14">
-        <v>-0.04392996165589282</v>
+        <v>-0.0377191502629093</v>
       </c>
       <c r="AD14">
-        <v>489.9</v>
+        <v>2121</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>489.9</v>
+        <v>2121</v>
       </c>
       <c r="AG14">
-        <v>293.7</v>
+        <v>-144.1999999999998</v>
       </c>
       <c r="AH14">
-        <v>0.3771072280809791</v>
+        <v>0.7037860437336165</v>
       </c>
       <c r="AI14">
-        <v>0.1904817450134142</v>
+        <v>0.4264087975714199</v>
       </c>
       <c r="AJ14">
-        <v>0.2662979417898268</v>
+        <v>-0.1926519706078821</v>
       </c>
       <c r="AK14">
-        <v>0.1236267205455234</v>
+        <v>-0.05323193916349803</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2165,7 +2168,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Caisse régionale de Crédit Agricole Mutuel Loire Haute-Loire - Société coopérative (ENXTPA:CRLO)</t>
+          <t>Caisse Régionale de Crédit Agricole Mutuel de La Touraine et du Poitou Société Coopérative (ENXTPA:CRTO)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2174,10 +2177,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.00217</v>
+        <v>-0.0248</v>
       </c>
       <c r="E15">
-        <v>0.00795</v>
+        <v>-0.08869999999999999</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2192,28 +2195,28 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="L15">
-        <v>0.2532481832195552</v>
+        <v>0.1949458483754513</v>
       </c>
       <c r="M15">
-        <v>27.6</v>
+        <v>14.8</v>
       </c>
       <c r="N15">
-        <v>0.02946199829205807</v>
+        <v>0.01945576442750099</v>
       </c>
       <c r="O15">
-        <v>0.24</v>
+        <v>0.2740740740740741</v>
       </c>
       <c r="P15">
-        <v>27.6</v>
+        <v>14.8</v>
       </c>
       <c r="Q15">
-        <v>0.02946199829205807</v>
+        <v>0.01945576442750099</v>
       </c>
       <c r="R15">
-        <v>0.24</v>
+        <v>0.2740740740740741</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2222,55 +2225,55 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>277.4</v>
+        <v>1133</v>
       </c>
       <c r="V15">
-        <v>0.2961144321093083</v>
+        <v>1.489417641645852</v>
       </c>
       <c r="W15">
-        <v>0.04847616237406736</v>
+        <v>0.02241780139488542</v>
       </c>
       <c r="X15">
-        <v>0.04834838423074017</v>
+        <v>0.2833855975225777</v>
       </c>
       <c r="Y15">
-        <v>0.0001277781433271855</v>
+        <v>-0.2609677961276923</v>
       </c>
       <c r="Z15">
-        <v>0.05072949482762473</v>
+        <v>0.02721770231497858</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04506261658492391</v>
+        <v>0.03779809902011139</v>
       </c>
       <c r="AC15">
-        <v>-0.04506261658492391</v>
+        <v>-0.03779809902011139</v>
       </c>
       <c r="AD15">
-        <v>138.5</v>
+        <v>9224.4</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>138.5</v>
+        <v>9224.4</v>
       </c>
       <c r="AG15">
-        <v>-138.9</v>
+        <v>8091.4</v>
       </c>
       <c r="AH15">
-        <v>0.1288012647633219</v>
+        <v>0.9238164865649817</v>
       </c>
       <c r="AI15">
-        <v>0.05426690698221143</v>
+        <v>0.7918687601404424</v>
       </c>
       <c r="AJ15">
-        <v>-0.1740819651585412</v>
+        <v>0.9140655889562928</v>
       </c>
       <c r="AK15">
-        <v>-0.06106031299454897</v>
+        <v>0.7694443651993648</v>
       </c>
       <c r="AL15">
         <v>0</v>
